--- a/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/models_description.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#30_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/models_description.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>LR#IC</t>
-  </si>
-  <si>
-    <t>LR#IC+Dem</t>
+    <t>LR#FC</t>
+  </si>
+  <si>
+    <t>LR#FC+Dem</t>
   </si>
   <si>
     <t>LR#CK</t>
